--- a/data/unchecked/manual_collect/america/AmericaCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/america/AmericaCaseStatistics_20200222.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\22日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\america\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10788,8 +10788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10958,10 +10958,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="22">
-        <v>43882.5</v>
+        <v>43883</v>
       </c>
       <c r="D2" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>3294</v>
